--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.bottle_choice,1</t>
+          <t>chitsii.arena.player.bottle_choice,0</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.bottle_choice,2</t>
+          <t>chitsii.arena.player.bottle_choice,1</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -510,12 +510,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>（リリィが納品された器の最終チェックのため、一時的に席を外した隙だった。）</t>
+          <t>（器が完成した。あなたはリリィに渡すため、受付へと向かう廊下を歩いていた。）</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>（リリィが納品された器の最終チェックのため、一時的に席を外した隙だった。）</t>
+          <t>（器が完成した。あなたはリリィに渡すため、受付へと向かう廊下を歩いていた。）</t>
         </is>
       </c>
     </row>
@@ -532,12 +532,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>（ロビーの灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
+          <t>（その途中——灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>（ロビーの灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
+          <t>（その途中——灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
         </is>
       </c>
     </row>
@@ -1758,12 +1758,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>（ゼクが消えた直後、リリィが戻ってきて、何食わぬ顔でその「偽物」を受け取る。）</t>
+          <t>（ゼクが消えた後、あなたは何食わぬ顔で受付へと向かい、その「偽物」をリリィに手渡す。）</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>（ゼクが消えた直後、リリィが戻ってきて、何食わぬ顔でその「偽物」を受け取る。）</t>
+          <t>（ゼクが消えた後、あなたは何食わぬ顔で受付へと向かい、その「偽物」をリリィに手渡す。）</t>
         </is>
       </c>
     </row>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>お待たせしました。</t>
+          <t>お疲れ様でした。見せていただけますか？</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>お待たせしました。</t>
+          <t>お疲れ様でした。見せていただけますか？</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -707,12 +707,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>そこに溜まるのは、あなたの戦いが生み出した『運命の雫』……。彼女はそれを啜り、あなたの魂をより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
+          <t>そこに溜まるのは、あなたの戦いが生み出した、あなたの自身の魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>そこに溜まるのは、あなたの戦いが生み出した『運命の雫』……。彼女はそれを啜り、あなたの魂をより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
+          <t>そこに溜まるのは、あなたの戦いが生み出した、あなたの自身の魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -1715,7 +1715,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,38 +571,68 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>……素晴らしい。実に、溜息が出るほどに。</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>……素晴らしい。実に、溜息が出るほどに。</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>あのサキュバスに渡すには、あまりに惜しい『傑作』を作られましたね、闘士殿。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>あのサキュバスに渡すには、あまりに惜しい『傑作』を作られましたね、闘士殿。</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>（彼は細長い指で、あなたが持つ器を指し示す。）</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>（彼は細長い指で、あなたが持つ器を指し示す。）</t>
         </is>
       </c>
     </row>
@@ -614,17 +644,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>zek_1</t>
+          <t>zek_3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>……素晴らしい。実に、溜息が出るほどに。</t>
+          <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる『音』ではありません。</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>……素晴らしい。実に、溜息が出るほどに。</t>
+          <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる『音』ではありません。</t>
         </is>
       </c>
     </row>
@@ -636,171 +666,141 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>zek_2</t>
+          <t>zek_4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>あのサキュバスに渡すには、あまりに惜しい『傑作』を作られましたね、闘士殿。</t>
+          <t>そこに溜まるのは、あなたの戦いが生み出した、あなたの自身の魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>あのサキュバスに渡すには、あまりに惜しい『傑作』を作られましたね、闘士殿。</t>
+          <t>そこに溜まるのは、あなたの戦いが生み出した、あなたの自身の魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>react1_what</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>c1_what</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>（彼は細長い指で、あなたが持つ器を指し示す。）</t>
+          <t>……何が言いたい</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>（彼は細長い指で、あなたが持つ器を指し示す。）</t>
+          <t>……何が言いたい</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>react1_manage</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>zek_3</t>
+          <t>c1_manage</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる『音』ではありません。</t>
+          <t>リリィが俺を管理しているだと？</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる『音』ではありません。</t>
+          <t>リリィが俺を管理しているだと？</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>zek_4</t>
+          <t>c1_silent</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>そこに溜まるのは、あなたの戦いが生み出した、あなたの自身の魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
+          <t>（無言で聞く）</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>そこに溜まるのは、あなたの戦いが生み出した、あなたの自身の魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>react1_what</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>c1_what</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>……何が言いたい</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>……何が言いたい</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>react1_manage</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>c1_manage</t>
+          <t>zek_r1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>リリィが俺を管理しているだと？</t>
+          <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>リリィが俺を管理しているだと？</t>
+          <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
+          <t>scene2_betrayal_offer</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>react1_what</t>
+          <t>react1_manage</t>
         </is>
       </c>
     </row>
@@ -812,17 +812,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>zek_r1</t>
+          <t>zek_r2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
+          <t>ええ、そうです。彼女はサキュバス。魂を喰らう存在です。あなたは気づいていなかったのですか？</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
+          <t>ええ、そうです。彼女はサキュバス。魂を喰らう存在です。あなたは気づいていなかったのですか？</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>react1_manage</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -848,17 +848,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>zek_r2</t>
+          <t>zek_r3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ええ、そうです。彼女はサキュバス。魂を喰らう存在です。あなたは気づいていなかったのですか？</t>
+          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>ええ、そうです。彼女はサキュバス。魂を喰らう存在です。あなたは気づいていなかったのですか？</t>
+          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
       </c>
     </row>
@@ -872,77 +872,107 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>scene2_betrayal_offer</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>zek_r3</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>scene2_betrayal_offer</t>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>（ゼクは長い指で、懐から一つの『偽物』を取り出した。）</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>（ゼクは長い指で、懐から一つの『偽物』を取り出した。）</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>scene2_betrayal_offer</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>（見た目はあなたが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>（見た目はあなたが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>zek_5</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>どうでしょう、一つ提案があります。</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>どうでしょう、一つ提案があります。</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>zek_6</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>（ゼクは長い指で、懐から一つの『偽物』を取り出した。）</t>
+          <t>その本物の器を、私に譲ってはいただけませんか？代わりに、この**『呪われた模造品（ミミック・ボトル）』**を彼女に渡すのです。</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>（ゼクは長い指で、懐から一つの『偽物』を取り出した。）</t>
+          <t>その本物の器を、私に譲ってはいただけませんか？代わりに、この**『呪われた模造品（ミミック・ボトル）』**を彼女に渡すのです。</t>
         </is>
       </c>
     </row>
@@ -954,17 +984,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>（見た目はあなたが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
+          <t>（彼は偽物の器をあなたの前に差し出す。）</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>（見た目はあなたが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
+          <t>（彼は偽物の器をあなたの前に差し出す。）</t>
         </is>
       </c>
     </row>
@@ -976,17 +1006,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>zek_5</t>
+          <t>zek_7</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>どうでしょう、一つ提案があります。</t>
+          <t>彼女は気づかないでしょう……。いえ、気づいた時には、彼女の『研究』はあなたの支配ではなく、私への捧げ物へとすり替わっている。</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>どうでしょう、一つ提案があります。</t>
+          <t>彼女は気づかないでしょう……。いえ、気づいた時には、彼女の『研究』はあなたの支配ではなく、私への捧げ物へとすり替わっている。</t>
         </is>
       </c>
     </row>
@@ -998,171 +1028,141 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>zek_6</t>
+          <t>zek_8</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>その本物の器を、私に譲ってはいただけませんか？代わりに、この**『呪われた模造品（ミミック・ボトル）』**を彼女に渡すのです。</t>
+          <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた『本物の禁忌』を差し上げましょう。……それと、特別な報酬も、ね。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>その本物の器を、私に譲ってはいただけませんか？代わりに、この**『呪われた模造品（ミミック・ボトル）』**を彼女に渡すのです。</t>
+          <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた『本物の禁忌』を差し上げましょう。……それと、特別な報酬も、ね。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>react2_forbidden</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>c2_forbidden</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>（彼は偽物の器をあなたの前に差し出す。）</t>
+          <t>その『禁忌』とは何だ？</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>（彼は偽物の器をあなたの前に差し出す。）</t>
+          <t>その『禁忌』とは何だ？</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>react2_betray</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>zek_7</t>
+          <t>c2_betray</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>彼女は気づかないでしょう……。いえ、気づいた時には、彼女の『研究』はあなたの支配ではなく、私への捧げ物へとすり替わっている。</t>
+          <t>リリィを裏切れと？</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>彼女は気づかないでしょう……。いえ、気づいた時には、彼女の『研究』はあなたの支配ではなく、私への捧げ物へとすり替わっている。</t>
+          <t>リリィを裏切れと？</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>react2_price</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>zek_8</t>
+          <t>c2_price</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた『本物の禁忌』を差し上げましょう。……それと、特別な報酬も、ね。</t>
+          <t>……代償は何だ</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた『本物の禁忌』を差し上げましょう。……それと、特別な報酬も、ね。</t>
+          <t>……代償は何だ</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>react2_forbidden</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>c2_forbidden</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>その『禁忌』とは何だ？</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>その『禁忌』とは何だ？</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>react2_betray</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>c2_betray</t>
+          <t>zek_r4</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>リリィを裏切れと？</t>
+          <t>ふふ、興味を持たれましたか。では、お見せいたしましょう。</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>リリィを裏切れと？</t>
+          <t>ふふ、興味を持たれましたか。では、お見せいたしましょう。</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>react2_price</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>c2_price</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>……代償は何だ</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>……代償は何だ</t>
+          <t>scene3_choice</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>react2_forbidden</t>
+          <t>react2_betray</t>
         </is>
       </c>
     </row>
@@ -1174,17 +1174,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>zek_r4</t>
+          <t>zek_r5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ふふ、興味を持たれましたか。では、お見せいたしましょう。</t>
+          <t>裏切りとは聞こえが悪い。……『戦略的な選択』と呼びましょう。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ふふ、興味を持たれましたか。では、お見せいたしましょう。</t>
+          <t>裏切りとは聞こえが悪い。……『戦略的な選択』と呼びましょう。</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>react2_betray</t>
+          <t>react2_price</t>
         </is>
       </c>
     </row>
@@ -1210,17 +1210,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>zek_r5</t>
+          <t>zek_r6</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>裏切りとは聞こえが悪い。……『戦略的な選択』と呼びましょう。</t>
+          <t>おや、慎重ですね。代償は……あなたの『良心』を、少しばかりいただくだけです。</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>裏切りとは聞こえが悪い。……『戦略的な選択』と呼びましょう。</t>
+          <t>おや、慎重ですね。代償は……あなたの『良心』を、少しばかりいただくだけです。</t>
         </is>
       </c>
     </row>
@@ -1234,476 +1234,466 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>react2_price</t>
+          <t>scene3_choice</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>zek_r6</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>おや、慎重ですね。代償は……あなたの『良心』を、少しばかりいただくだけです。</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>おや、慎重ですね。代償は……あなたの『良心』を、少しばかりいただくだけです。</t>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Heartbeat");             var data = SoundManager.current.GetData("BGM/Ominous_Heartbeat");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Heartbeat");             }</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>scene3_choice</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>（ゼクは「本物の器」と「偽物の器」、そして報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>（ゼクは「本物の器」と「偽物の器」、そして報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>scene3_choice</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>（彼のフードの奥にある瞳が、あなたの決断を愉しむように細められた。）</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>（彼のフードの奥にある瞳が、あなたの決断を愉しむように細められた。）</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Heartbeat");             var data = SoundManager.current.GetData("BGM/Ominous_Heartbeat");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Heartbeat");             }</t>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>zek_9</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>リリィに従い、大人しく彼女の飼い犬となるか。それとも、私と手を組み、彼女を欺いて『真なる力』を手にするか。</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>リリィに従い、大人しく彼女の飼い犬となるか。それとも、私と手を組み、彼女を欺いて『真なる力』を手にするか。</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="inlineStr">
         <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>zek_10</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>……ふふ、どちらを選んでも、このアリーナに刻まれるあなたの物語は、より残酷で美しいものになるでしょう。さあ、お選びください。</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>……ふふ、どちらを選んでも、このアリーナに刻まれるあなたの物語は、より残酷で美しいものになるでしょう。さあ、お選びください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>refuse</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c_refuse</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>断る。リリィを裏切るつもりはない</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>断る。リリィを裏切るつもりはない</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>accept</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>c_accept</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>……分かった。取引に応じる</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>……分かった。取引に応じる</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>refuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>zek_ref1</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>……残念です。ですが、無理強いはいたしません。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>……残念です。ですが、無理強いはいたしません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>zek_ref2</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>あなたが『忠犬』の道を選ばれるというのなら、それもまた一興。……いつか、その選択を後悔する日が来るかもしれませんが。</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>あなたが『忠犬』の道を選ばれるというのなら、それもまた一興。……いつか、その選択を後悔する日が来るかもしれませんが。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>（ゼクは「本物の器」と「偽物の器」、そして報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>（ゼクは「本物の器」と「偽物の器」、そして報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="F56" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>narr_ref</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>（ゼクは影の中へと消えていく。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.bottle_choice,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>（彼のフードの奥にある瞳が、あなたの決断を愉しむように細められた。）</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>（彼のフードの奥にある瞳が、あなたの決断を愉しむように細められた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>zek_9</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>リリィに従い、大人しく彼女の飼い犬となるか。それとも、私と手を組み、彼女を欺いて『真なる力』を手にするか。</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>リリィに従い、大人しく彼女の飼い犬となるか。それとも、私と手を組み、彼女を欺いて『真なる力』を手にするか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>zek_10</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>……ふふ、どちらを選んでも、このアリーナに刻まれるあなたの物語は、より残酷で美しいものになるでしょう。さあ、お選びください。</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>……ふふ、どちらを選んでも、このアリーナに刻まれるあなたの物語は、より残酷で美しいものになるでしょう。さあ、お選びください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>refuse</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>c_refuse</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>断る。リリィを裏切るつもりはない</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>断る。リリィを裏切るつもりはない</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>accept</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>c_accept</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>……分かった。取引に応じる</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>……分かった。取引に応じる</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>refuse</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>zek_ref1</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>……残念です。ですが、無理強いはいたしません。</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>……残念です。ですが、無理強いはいたしません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>zek_ref2</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>あなたが『忠犬』の道を選ばれるというのなら、それもまた一興。……いつか、その選択を後悔する日が来るかもしれませんが。</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>あなたが『忠犬』の道を選ばれるというのなら、それもまた一興。……いつか、その選択を後悔する日が来るかもしれませんが。</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>zek_acc1</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ふふ、賢明な判断です。</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ふふ、賢明な判断です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>narr_ref</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.bottle_choice,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>narr_acc1</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>（ゼクは満足げに本物の器を影の中へと消し、偽物をあなたの手に握らせる。）</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>（ゼクは満足げに本物の器を影の中へと消し、偽物をあなたの手に握らせる。）</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>accept</t>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>zek_acc2</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>zek_acc1</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>ふふ、賢明な判断です。</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>ふふ、賢明な判断です。</t>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>narr_acc1</t>
+          <t>zek_acc3</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>（ゼクは満足げに本物の器を影の中へと消し、偽物をあなたの手に握らせる。）</t>
+          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い演技を。彼女に気づかれないよう、お気をつけて。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>（ゼクは満足げに本物の器を影の中へと消し、偽物をあなたの手に握らせる。）</t>
+          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い演技を。彼女に気づかれないよう、お気をつけて。</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>zek_acc2</t>
+          <t>narr_acc2</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="D72" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.bottle_choice,1</t>
         </is>
       </c>
     </row>
     <row r="73">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>zek_acc3</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い演技を。彼女に気づかれないよう、お気をつけて。</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い演技を。彼女に気づかれないよう、お気をつけて。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="74">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.zek, +15)</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>narr_acc2</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="D75" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.bottle_choice,1</t>
+          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>scene4_aftermath</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.zek, +15)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>scene4_aftermath</t>
         </is>
       </c>
     </row>
@@ -1715,237 +1705,175 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("money")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>scene4_aftermath</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>narr_aft1</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>（ゼクが消えた後、あなたは何食わぬ顔で受付へと向かい、その「偽物」をリリィに手渡す。）</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>（ゼクが消えた後、あなたは何食わぬ顔で受付へと向かい、その「偽物」をリリィに手渡す。）</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>scene4_aftermath</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>lily_a1</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>お疲れ様でした。見せていただけますか？</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>お疲れ様でした。見せていただけますか？</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>narr_aft2</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>（彼女は器を手に取り、軽く傾ける。）</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>（彼女は器を手に取り、軽く傾ける。）</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>lily_a2</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="F83" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>narr_aft1</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>（ゼクが消えた後、あなたは何食わぬ顔で受付へと向かい、その「偽物」をリリィに手渡す。）</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>（ゼクが消えた後、あなたは何食わぬ顔で受付へと向かい、その「偽物」をリリィに手渡す。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>narr_aft3</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>（一瞬、彼女の瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>（一瞬、彼女の瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>lily_a3</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>lily_a1</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>お疲れ様でした。見せていただけますか？</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>お疲れ様でした。見せていただけますか？</t>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="87">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>complete_quest(05_2_zek_steal_bottle)</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>narr_aft2</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>（彼女は器を手に取り、軽く傾ける。）</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>（彼女は器を手に取り、軽く傾ける。）</t>
-        </is>
-      </c>
     </row>
     <row r="88">
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>lily_a2</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>narr_aft3</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>（一瞬、彼女の瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>（一瞬、彼女の瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>lily_a3</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>complete_quest(05_2_zek_steal_bottle)</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="D94" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -1930,17 +1930,12 @@
     <row r="93">
       <c r="D93" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>complete_quest(05_2_zek_steal_bottle)</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>Elin_SukutsuArena.ArenaManager.CompleteZekStealBottleQuest();</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,12 +510,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>（器が完成した。あなたはリリィに渡すため、受付へと向かう廊下を歩いていた。）</t>
+          <t>（リリィが作った『虚空の共鳴瓶』。彼女は満足げに、その器を受付の棚に飾っていた。）</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>（器が完成した。あなたはリリィに渡すため、受付へと向かう廊下を歩いていた。）</t>
+          <t>（リリィが作った『虚空の共鳴瓶』。彼女は満足げに、その器を受付の棚に飾っていた。）</t>
         </is>
       </c>
     </row>
@@ -532,12 +532,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>（その途中——灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
+          <t>（——廊下を歩いていると、灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>（その途中——灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
+          <t>（——廊下を歩いていると、灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>あのサキュバスに渡すには、あまりに惜しい『傑作』を作られましたね、闘士殿。</t>
+          <t>あのサキュバスが作った『共鳴瓶』……実に惜しい傑作ですね、闘士殿。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>あのサキュバスに渡すには、あまりに惜しい『傑作』を作られましたね、闘士殿。</t>
+          <t>あのサキュバスが作った『共鳴瓶』……実に惜しい傑作ですね、闘士殿。</t>
         </is>
       </c>
     </row>
@@ -663,12 +663,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>（彼は細長い指で、あなたが持つ器を指し示す。）</t>
+          <t>（彼は細長い指で、受付の方角を指し示す。）</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>（彼は細長い指で、あなたが持つ器を指し示す。）</t>
+          <t>（彼は細長い指で、受付の方角を指し示す。）</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる『音』ではありません。</t>
+          <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる魔力ではありません。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる『音』ではありません。</t>
+          <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる魔力ではありません。</t>
         </is>
       </c>
     </row>
@@ -707,12 +707,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>そこに溜まるのは、あなたの戦いが生み出した、あなたの自身の魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
+          <t>そこに溜まるのは、あなたがた闘士の戦いが生み出した、魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>そこに溜まるのは、あなたの戦いが生み出した、あなたの自身の魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
+          <t>そこに溜まるのは、あなたがた闘士の戦いが生み出した、魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>リリィが俺を管理しているだと？</t>
+          <t>リリィに管理されているって？</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>リリィが俺を管理しているだと？</t>
+          <t>リリィに管理されているって？</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ええ、そうです。彼女はサキュバス。魂を喰らう存在です。あなたは気づいていなかったのですか？</t>
+          <t>ええ、そうです。彼女はサキュバス。獲物を支配し、魂をすすり喰らう存在なのですよ。</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>ええ、そうです。彼女はサキュバス。魂を喰らう存在です。あなたは気づいていなかったのですか？</t>
+          <t>ええ、そうです。彼女はサキュバス。獲物を支配し、魂をすすり喰らう存在なのですよ。</t>
         </is>
       </c>
     </row>
@@ -959,12 +959,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>（見た目はあなたが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
+          <t>（見た目はリリィが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>（見た目はあなたが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
+          <t>（見た目はリリィが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>その本物の器を、私に譲ってはいただけませんか？代わりに、この**『呪われた模造品（ミミック・ボトル）』**を彼女に渡すのです。</t>
+          <t>あの本物の器を盗み出し、私に譲ってはいただけませんか？代わりに、この『模造品』を棚に戻しておくのです。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>その本物の器を、私に譲ってはいただけませんか？代わりに、この**『呪われた模造品（ミミック・ボトル）』**を彼女に渡すのです。</t>
+          <t>あの本物の器を盗み出し、私に譲ってはいただけませんか？代わりに、この『模造品』を棚に戻しておくのです。</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた『本物の禁忌』を差し上げましょう。……それと、特別な報酬も、ね。</t>
+          <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた珍品を差し上げましょう。……それと、特別な報酬も、ね。</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた『本物の禁忌』を差し上げましょう。……それと、特別な報酬も、ね。</t>
+          <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた珍品を差し上げましょう。……それと、特別な報酬も、ね。</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>その『禁忌』とは何だ？</t>
+          <t>その珍品とは何だ？</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>その『禁忌』とは何だ？</t>
+          <t>その珍品とは何だ？</t>
         </is>
       </c>
     </row>
@@ -1299,12 +1299,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>（ゼクは「本物の器」と「偽物の器」、そして報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
+          <t>（ゼクは「偽物の器」と報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>（ゼクは「本物の器」と「偽物の器」、そして報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
+          <t>（ゼクは「偽物の器」と報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
         </is>
       </c>
     </row>
@@ -1504,266 +1504,276 @@
     <row r="65">
       <c r="D65" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.bottle_choice,0</t>
+          <t>complete_quest(05_2_zek_steal_bottle_refuse)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="D66" t="inlineStr">
         <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>accept</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>accept</t>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>zek_acc1</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ふふ、賢明な判断です。</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ふふ、賢明な判断です。</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>zek_acc1</t>
+          <t>narr_acc1</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>ふふ、賢明な判断です。</t>
+          <t>（ゼクは満足げに偽物の器をあなたの手に握らせる。）</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ふふ、賢明な判断です。</t>
+          <t>（ゼクは満足げに偽物の器をあなたの手に握らせる。）</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>narr_acc1</t>
+          <t>zek_acc2</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>（ゼクは満足げに本物の器を影の中へと消し、偽物をあなたの手に握らせる。）</t>
+          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>（ゼクは満足げに本物の器を影の中へと消し、偽物をあなたの手に握らせる。）</t>
+          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>zek_acc2</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>zek_acc3</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い仕事を。彼女が寝静まった頃に、すり替えてきてくださいな。</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い仕事を。彼女が寝静まった頃に、すり替えてきてくださいな。</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="inlineStr">
         <is>
-          <t>sukutsu_shady_merchant</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>zek_acc3</t>
+          <t>narr_acc2</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い演技を。彼女に気づかれないよう、お気をつけて。</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い演技を。彼女に気づかれないよう、お気をつけて。</t>
+          <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>narr_acc2</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>（ゼクは影の中へと消えていく。）</t>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.bottle_choice,1</t>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>scene4_aftermath</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>scene4_aftermath</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="D77" t="inlineStr">
         <is>
-          <t>invoke*</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>mod_flag(chitsii.arena.rel.zek, +15)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="F78" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>narr_aft1</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>（深夜——リリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>（深夜——リリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>scene4_aftermath</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>narr_aft2</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>（本物の器はゼクの元へ。あなたの手には、澱んだ霧を宿す模造品だけが残った。）</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>（本物の器はゼクの元へ。あなたの手には、澱んだ霧を宿す模造品だけが残った。）</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>scene4_aftermath</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>narr_aft3</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>（翌朝——）</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>（翌朝——）</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="D81" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>narr_aft1</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>（ゼクが消えた後、あなたは何食わぬ顔で受付へと向かい、その「偽物」をリリィに手渡す。）</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>（ゼクが消えた後、あなたは何食わぬ顔で受付へと向かい、その「偽物」をリリィに手渡す。）</t>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -1775,31 +1785,51 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>lily_a1</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>narr_aft4</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>（彼女は棚の器を手に取り、軽く傾ける。一瞬、その瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>（彼女は棚の器を手に取り、軽く傾ける。一瞬、その瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
         </is>
       </c>
     </row>
@@ -1811,17 +1841,17 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>lily_a1</t>
+          <t>lily_a2</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>お疲れ様でした。見せていただけますか？</t>
+          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>お疲れ様でした。見せていただけますか？</t>
+          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
         </is>
       </c>
     </row>
@@ -1833,114 +1863,53 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>narr_aft2</t>
+          <t>narr_aft5</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>（彼女は器を手に取り、軽く傾ける。）</t>
+          <t>（彼女は気づいていないのか、それとも——）</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>（彼女は器を手に取り、軽く傾ける。）</t>
+          <t>（彼女は気づいていないのか、それとも——）</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>lily_a2</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="inlineStr">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>complete_quest(05_2_zek_steal_bottle_accept)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>narr_aft3</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>（一瞬、彼女の瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>（一瞬、彼女の瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>lily_a3</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
-        </is>
-      </c>
     </row>
     <row r="91">
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.CompleteZekStealBottleQuest();</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="D94" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -532,12 +532,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>（——廊下を歩いていると、灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
+          <t>（ーー廊下を歩いていると、灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>（——廊下を歩いていると、灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
+          <t>（ーー廊下を歩いていると、灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>（深夜——リリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
+          <t>（深夜ーーリリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>（深夜——リリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
+          <t>（深夜ーーリリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
         </is>
       </c>
     </row>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>（翌朝——）</t>
+          <t>（翌朝ーー）</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>（翌朝——）</t>
+          <t>（翌朝ーー）</t>
         </is>
       </c>
     </row>
@@ -1868,12 +1868,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>（彼女は気づいていないのか、それとも——）</t>
+          <t>（彼女は気づいていないのか、それともーー）</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>（彼女は気づいていないのか、それとも——）</t>
+          <t>（彼女は気づいていないのか、それともーー）</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,12 +510,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>（リリィが作った『虚空の共鳴瓶』。彼女は満足げに、その器を受付の棚に飾っていた。）</t>
+          <t>（リリィが作った『死の共鳴瓶』。彼女は満足げに、その器を受付の棚に飾っていた。）</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>（リリィが作った『虚空の共鳴瓶』。彼女は満足げに、その器を受付の棚に飾っていた。）</t>
+          <t>（リリィが作った『死の共鳴瓶』。彼女は満足げに、その器を受付の棚に飾っていた。）</t>
         </is>
       </c>
     </row>
@@ -1504,75 +1504,60 @@
     <row r="65">
       <c r="D65" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>complete_quest(05_2_zek_steal_bottle_refuse)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>chitsii.arena.player.bottle_choice,0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="D66" t="inlineStr">
         <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>complete_quest(05_2_zek_steal_bottle)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>complete_quest(05_2_zek_steal_bottle_refuse)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>accept</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>zek_acc1</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>ふふ、賢明な判断です。</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>ふふ、賢明な判断です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>narr_acc1</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>（ゼクは満足げに偽物の器をあなたの手に握らせる。）</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>（ゼクは満足げに偽物の器をあなたの手に握らせる。）</t>
         </is>
       </c>
     </row>
@@ -1584,24 +1569,39 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>zek_acc2</t>
+          <t>zek_acc1</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
+          <t>ふふ、賢明な判断です。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
+          <t>ふふ、賢明な判断です。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>narr_acc1</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>（ゼクは満足げに偽物の器をあなたの手に握らせる。）</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>（ゼクは満足げに偽物の器をあなたの手に握らせる。）</t>
         </is>
       </c>
     </row>
@@ -1613,121 +1613,106 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
+          <t>zek_acc2</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
           <t>zek_acc3</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い仕事を。彼女が寝静まった頃に、すり替えてきてくださいな。</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い仕事を。彼女が寝静まった頃に、すり替えてきてくださいな。</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
+    <row r="75">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>narr_acc2</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
+    <row r="76">
+      <c r="D76" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="B75" t="inlineStr">
+    <row r="77">
+      <c r="B77" t="inlineStr">
         <is>
           <t>scene4_aftermath</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>scene4_aftermath</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="D77" t="inlineStr">
+    <row r="79">
+      <c r="D79" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>narr_aft1</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>（深夜ーーリリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>（深夜ーーリリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>narr_aft2</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>（本物の器はゼクの元へ。あなたの手には、澱んだ霧を宿す模造品だけが残った。）</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>（本物の器はゼクの元へ。あなたの手には、澱んだ霧を宿す模造品だけが残った。）</t>
         </is>
       </c>
     </row>
@@ -1739,41 +1724,61 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
+          <t>narr_aft1</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>（深夜ーーリリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>（深夜ーーリリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>narr_aft2</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>（本物の器はゼクの元へ。あなたの手には、澱んだ霧を宿す模造品だけが残った。）</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>（本物の器はゼクの元へ。あなたの手には、澱んだ霧を宿す模造品だけが残った。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>narr_aft3</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>（翌朝ーー）</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>（翌朝ーー）</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
@@ -1785,51 +1790,31 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>lily_a1</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>narr_aft4</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>（彼女は棚の器を手に取り、軽く傾ける。一瞬、その瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>（彼女は棚の器を手に取り、軽く傾ける。一瞬、その瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
         </is>
       </c>
     </row>
@@ -1841,17 +1826,17 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>lily_a2</t>
+          <t>lily_a1</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
+          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
+          <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
         </is>
       </c>
     </row>
@@ -1863,53 +1848,126 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
+          <t>narr_aft4</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>（彼女は棚の器を手に取り、軽く傾ける。一瞬、その瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>（彼女は棚の器を手に取り、軽く傾ける。一瞬、その瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>lily_a2</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
           <t>narr_aft5</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>（彼女は気づいていないのか、それともーー）</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>（彼女は気づいていないのか、それともーー）</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="B88" t="inlineStr">
+    <row r="90">
+      <c r="B90" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="D90" t="inlineStr">
+    <row r="92">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.bottle_choice,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>complete_quest(05_2_zek_steal_bottle)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>complete_quest(05_2_zek_steal_bottle_accept)</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="D91" t="inlineStr">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_steal_bottle.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,231 +491,231 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>（リリィが作った『死の共鳴瓶』。彼女は満足げに、その器を受付の棚に飾っていた。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>（リリィが作った『死の共鳴瓶』。彼女は満足げに、その器を受付の棚に飾っていた。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>（ーー廊下を歩いていると、灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>（ーー廊下を歩いていると、灯火が不自然に揺らぎ、あなたの足元の影が、まるで意思を持った沼のように長く伸びる。）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（そこから、鎖の擦れる音と共に、ゼクが音もなく這い出してきた。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>（そこから、鎖の擦れる音と共に、ゼクが音もなく這い出してきた。）</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>zek_1</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>……素晴らしい。実に、溜息が出るほどに。</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>……素晴らしい。実に、溜息が出るほどに。</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>あのサキュバスが作った『共鳴瓶』……実に惜しい傑作ですね、闘士殿。</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>あのサキュバスが作った『共鳴瓶』……実に惜しい傑作ですね、闘士殿。</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>（彼は細長い指で、受付の方角を指し示す。）</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>（彼は細長い指で、受付の方角を指し示す。）</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる魔力ではありません。</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>彼女が何と言ったかは知りませんが……あの女がその器で集めようとしているのは、単なる魔力ではありません。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>zek_4</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>そこに溜まるのは、あなたがた闘士の戦いが生み出した、魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>そこに溜まるのは、あなたがた闘士の戦いが生み出した、魂の残滓……。彼女はそれを啜り、あなたをより効率的に『管理』しようとしているのですよ。……ふふ、お気づきでしたか？</t>
         </is>
@@ -722,22 +727,22 @@
           <t>react1_what</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>c1_what</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>……何が言いたい</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>……何が言いたい</t>
         </is>
@@ -749,22 +754,22 @@
           <t>react1_manage</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>c1_manage</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>リリィに管理されているって？</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>リリィに管理されているって？</t>
         </is>
@@ -776,22 +781,22 @@
           <t>react1_silent</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>c1_silent</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
@@ -805,22 +810,22 @@
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>zek_r1</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>おや、警戒心がおありで。では、単刀直入に申し上げましょう。</t>
         </is>
@@ -841,22 +846,22 @@
       </c>
     </row>
     <row r="27">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>zek_r2</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>ええ、そうです。彼女はサキュバス。獲物を支配し、魂をすすり喰らう存在なのですよ。</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>ええ、そうです。彼女はサキュバス。獲物を支配し、魂をすすり喰らう存在なのですよ。</t>
         </is>
@@ -877,22 +882,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>zek_r3</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>……ふふ、沈黙は賢明さの証。では、続けさせていただきましょう。</t>
         </is>
@@ -913,166 +918,166 @@
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>（ゼクは長い指で、懐から一つの『偽物』を取り出した。）</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>（ゼクは長い指で、懐から一つの『偽物』を取り出した。）</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>（見た目はリリィが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>（見た目はリリィが作った共鳴瓶と瓜二つだが、そのガラスの奥には、澱んだどす黒い霧が渦巻いている。）</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>zek_5</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>どうでしょう、一つ提案があります。</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>どうでしょう、一つ提案があります。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>zek_6</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>あの本物の器を盗み出し、私に譲ってはいただけませんか？代わりに、この『模造品』を棚に戻しておくのです。</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>あの本物の器を盗み出し、私に譲ってはいただけませんか？代わりに、この『模造品』を棚に戻しておくのです。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>（彼は偽物の器をあなたの前に差し出す。）</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>（彼は偽物の器をあなたの前に差し出す。）</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>zek_7</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>彼女は気づかないでしょう……。いえ、気づいた時には、彼女の『研究』はあなたの支配ではなく、私への捧げ物へとすり替わっている。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>彼女は気づかないでしょう……。いえ、気づいた時には、彼女の『研究』はあなたの支配ではなく、私への捧げ物へとすり替わっている。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>zek_8</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた珍品を差し上げましょう。……それと、特別な報酬も、ね。</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>そしてあなたには、その誠実な裏切りの対価として、私が異次元のゴミ捨て場で拾い上げた珍品を差し上げましょう。……それと、特別な報酬も、ね。</t>
         </is>
@@ -1084,22 +1089,22 @@
           <t>react2_forbidden</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>c2_forbidden</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>その珍品とは何だ？</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>その珍品とは何だ？</t>
         </is>
@@ -1111,22 +1116,22 @@
           <t>react2_betray</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>c2_betray</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>リリィを裏切れと？</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>リリィを裏切れと？</t>
         </is>
@@ -1138,22 +1143,22 @@
           <t>react2_price</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>c2_price</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>……代償は何だ</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>……代償は何だ</t>
         </is>
@@ -1167,22 +1172,22 @@
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>zek_r4</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>ふふ、興味を持たれましたか。では、お見せいたしましょう。</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>ふふ、興味を持たれましたか。では、お見せいたしましょう。</t>
         </is>
@@ -1203,22 +1208,22 @@
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>zek_r5</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>裏切りとは聞こえが悪い。……『戦略的な選択』と呼びましょう。</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>裏切りとは聞こえが悪い。……『戦略的な選択』と呼びましょう。</t>
         </is>
@@ -1239,22 +1244,22 @@
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>zek_r6</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>おや、慎重ですね。代償は……あなたの『良心』を、少しばかりいただくだけです。</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>おや、慎重ですね。代償は……あなたの『良心』を、少しばかりいただくだけです。</t>
         </is>
@@ -1275,100 +1280,100 @@
       </c>
     </row>
     <row r="54">
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Heartbeat");             var data = SoundManager.current.GetData("BGM/Ominous_Heartbeat");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Heartbeat");             }</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>（ゼクは「偽物の器」と報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>（ゼクは「偽物の器」と報酬となる「禍々しい品」を並べ、あなたの返答を待つ。）</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>narr_9</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>（彼のフードの奥にある瞳が、あなたの決断を愉しむように細められた。）</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>（彼のフードの奥にある瞳が、あなたの決断を愉しむように細められた。）</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>zek_9</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>リリィに従い、大人しく彼女の飼い犬となるか。それとも、私と手を組み、彼女を欺いて『真なる力』を手にするか。</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>リリィに従い、大人しく彼女の飼い犬となるか。それとも、私と手を組み、彼女を欺いて『真なる力』を手にするか。</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>zek_10</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>……ふふ、どちらを選んでも、このアリーナに刻まれるあなたの物語は、より残酷で美しいものになるでしょう。さあ、お選びください。</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>……ふふ、どちらを選んでも、このアリーナに刻まれるあなたの物語は、より残酷で美しいものになるでしょう。さあ、お選びください。</t>
         </is>
@@ -1380,22 +1385,22 @@
           <t>refuse</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>c_refuse</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>断る。リリィを裏切るつもりはない</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>断る。リリィを裏切るつもりはない</t>
         </is>
@@ -1407,22 +1412,22 @@
           <t>accept</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>c_accept</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>……分かった。取引に応じる</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>……分かった。取引に応じる</t>
         </is>
@@ -1436,119 +1441,119 @@
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>zek_ref1</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>……残念です。ですが、無理強いはいたしません。</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>……残念です。ですが、無理強いはいたしません。</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>zek_ref2</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>あなたが『忠犬』の道を選ばれるというのなら、それもまた一興。……いつか、その選択を後悔する日が来るかもしれませんが。</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>あなたが『忠犬』の道を選ばれるというのなら、それもまた一興。……いつか、その選択を後悔する日が来るかもしれませんが。</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>narr_ref</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>chitsii.arena.player.bottle_choice,0</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>complete_quest(05_2_zek_steal_bottle)</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>complete_quest(05_2_zek_steal_bottle_refuse)</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>end</t>
         </is>
@@ -1562,131 +1567,146 @@
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>zek_acc1</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>ふふ、賢明な判断です。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>ふふ、賢明な判断です。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>narr_acc1</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>（ゼクは満足げに偽物の器をあなたの手に握らせる。）</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>（ゼクは満足げに偽物の器をあなたの手に握らせる。）</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>zek_acc2</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
-        </is>
-      </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>これがあなたへの報酬……**小さなコイン10枚**と**プラチナコイン3枚**を、台帳に記録する手はずを整えておきましょう。それと、この『影の印』を。</t>
+          <t>これがあなたへの報酬……私の店の品を、ひとつお分けしましょう。</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>これがあなたへの報酬……私の店の品を、ひとつお分けしましょう。</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>narr_acc2</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>（ゼクは禍々しい瓶を取り出し、あなたの手に押し付けた。）</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>（ゼクは禍々しい瓶を取り出し、あなたの手に押し付けた。）</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>zek_acc3</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い仕事を。彼女が寝静まった頃に、すり替えてきてくださいな。</t>
-        </is>
-      </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>これで、私の店での取引が、より『有利』になりますよ。……では、良い仕事を。彼女が寝静まった頃に、すり替えてきてくださいな。</t>
+          <t>『痛覚遮断薬』。次の戦いで、役に立つでしょう。……では、良い仕事を。彼女が寝静まった頃に、すり替えてきてくださいな。</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>『痛覚遮断薬』。次の戦いで、役に立つでしょう。……では、良い仕事を。彼女が寝静まった頃に、すり替えてきてくださいな。</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>narr_acc2</t>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
+          <t>narr_acc3</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
           <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>（ゼクは影の中へと消えていく。）</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("medal")); } for(int i=0; i&lt;3; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>EClass.pc.Pick(ThingGen.Create("sukutsu_painkiller"));</t>
         </is>
       </c>
     </row>
@@ -1705,202 +1725,202 @@
       </c>
     </row>
     <row r="79">
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>narr_aft1</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>（深夜ーーリリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>（深夜ーーリリィが休んでいる隙に、あなたは受付に忍び込み、棚の『共鳴瓶』を偽物とすり替えた。）</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>narr_aft2</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>（本物の器はゼクの元へ。あなたの手には、澱んだ霧を宿す模造品だけが残った。）</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>（本物の器はゼクの元へ。あなたの手には、澱んだ霧を宿す模造品だけが残った。）</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>narr_aft3</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>（翌朝ーー）</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>（翌朝ーー）</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>lily_a1</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>……あら、なんだか少し、器の感触が変わったかしら？</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>narr_aft4</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>（彼女は棚の器を手に取り、軽く傾ける。一瞬、その瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>（彼女は棚の器を手に取り、軽く傾ける。一瞬、その瞳があなたを鋭く見つめるが、すぐに笑顔に戻る。）</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>lily_a2</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>……まぁいいわ。これで私の研究は飛躍的に進みます。ふふ、感謝してくださいね。あなたが『使い物』にならなくなった後も、その響きだけは私の手元に残るのですから。</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>narr_aft5</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>（彼女は気づいていないのか、それともーー）</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>（彼女は気づいていないのか、それともーー）</t>
         </is>
@@ -1921,53 +1941,53 @@
       </c>
     </row>
     <row r="92">
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>chitsii.arena.player.bottle_choice,1</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>complete_quest(05_2_zek_steal_bottle)</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>complete_quest(05_2_zek_steal_bottle_accept)</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>end</t>
         </is>
